--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos - copia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C552F0C-6E9F-4EC0-8E31-D5BA1A0AE5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F138D9BF-6245-44E9-AF56-D3CFFBD62D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="productoCgn_Items">Hoja1!$B$24:$E$25</definedName>
     <definedName name="ProductoGlp_Items">Hoja1!$B$19:$E$20</definedName>
-    <definedName name="ProductoGlpCgn_Items">Hoja1!$B$29:$E$30</definedName>
+    <definedName name="ProductoGlpCgn_Items">Hoja1!$B$29:$E$32</definedName>
     <definedName name="ProductoParaReproceso_Items">Hoja1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>RESUMEN DIARIO DE FISCALIZACION DE PRODUCTOS</t>
   </si>
@@ -75,12 +75,6 @@
     <t>PRODUCTOS</t>
   </si>
   <si>
-    <t>{{item.Produccion}}</t>
-  </si>
-  <si>
-    <t>{{item.Despacho}}</t>
-  </si>
-  <si>
     <t>{{AprobadoPor}}</t>
   </si>
   <si>
@@ -151,6 +145,39 @@
   </si>
   <si>
     <t>___________________</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>CGN</t>
+  </si>
+  <si>
+    <t>{{GlpProduccion}}</t>
+  </si>
+  <si>
+    <t>{{CgnProduccion}}</t>
+  </si>
+  <si>
+    <t>{{CgnInventario}}</t>
+  </si>
+  <si>
+    <t>{{CgnDespacho}}</t>
+  </si>
+  <si>
+    <t>{{GlpDespacho}}</t>
+  </si>
+  <si>
+    <t>{{GlpInventario}}</t>
+  </si>
+  <si>
+    <t>{{TotalProduccion}}</t>
+  </si>
+  <si>
+    <t>{{TotalDespacho}}</t>
+  </si>
+  <si>
+    <t>{{TotalInventario}}</t>
   </si>
 </sst>
 </file>
@@ -160,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +206,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -234,12 +254,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
@@ -255,7 +269,29 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -269,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -388,110 +424,217 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -499,81 +642,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,15 +683,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>97448</xdr:rowOff>
+      <xdr:colOff>73270</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1085188</xdr:colOff>
+      <xdr:colOff>1129150</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>106973</xdr:rowOff>
+      <xdr:rowOff>77665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -632,7 +719,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="29308" y="287948"/>
+          <a:off x="73270" y="148736"/>
           <a:ext cx="1055880" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -655,15 +742,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>51290</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>183172</xdr:rowOff>
+      <xdr:colOff>36636</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1011493</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>107031</xdr:rowOff>
+      <xdr:colOff>996839</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -692,7 +779,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1296867" y="6132634"/>
+          <a:off x="1282213" y="5942134"/>
           <a:ext cx="960203" cy="685859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1002,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CC9BB-3F6A-4ED2-8708-37259B7D1880}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:XFB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
@@ -1015,357 +1102,409 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" hidden="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="16382" width="11.42578125" hidden="1"/>
+    <col min="16383" max="16384" width="0.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="46"/>
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:7" ht="12" customHeight="1">
+      <c r="A1" s="61"/>
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="50" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1">
+      <c r="A2" s="61"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" ht="12" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:7" ht="12" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12" customHeight="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="9" spans="1:7">
+      <c r="D9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="51"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="54" t="s">
+      <c r="E9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="55"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="11" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B11" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B13" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B14" s="64"/>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B15" s="64"/>
+      <c r="C15" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="47" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+    </row>
+    <row r="17" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B17" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C17" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D17" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B19" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6" ht="12.95" customHeight="1"/>
+    <row r="22" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B22" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B23" s="63"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B24" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:6" ht="12.95" customHeight="1"/>
+    <row r="27" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B27" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B28" s="63"/>
+      <c r="C28" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B29" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B30" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="3"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1">
-      <c r="B13" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1">
-      <c r="B14" s="49"/>
-      <c r="C14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1">
-      <c r="B15" s="49"/>
-      <c r="C15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="2:6" ht="12" customHeight="1">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="2:6" ht="12" customHeight="1"/>
-    <row r="22" spans="2:6" ht="12" customHeight="1">
-      <c r="B22" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="48"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="33"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="2:6" ht="9.75" customHeight="1">
-      <c r="B28" s="48"/>
-      <c r="C28" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="8"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="35" t="s">
+      <c r="D40" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="34"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="34"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="34"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="58"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="57" t="s">
+      <c r="E40" s="58"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="59" t="s">
+      <c r="C41" s="25"/>
+      <c r="D41" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B34:E36"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="B1:E5"/>
-    <mergeCell ref="B32:E32"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B27:B28"/>
@@ -1376,8 +1515,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
